--- a/academycity/data/avic/datasets/excel/conference/output/GDP/2018_Primary_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/GDP/2018_Primary_o.xlsx
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C130" t="n">
